--- a/work/RiskAssessment.xlsx
+++ b/work/RiskAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PowerShell\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D91D63B-709E-4218-BF5A-902C102C685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D9BC1-DB51-42F4-9AD0-908E2C0DE3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{65CE028D-326F-40D8-97EB-50997E25F404}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>Initial Access Required to be able to attack</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
@@ -43,13 +40,130 @@
   </si>
   <si>
     <t>Ransomwareability</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Phishing, Supply Chain, Adware, Scareware</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Man-in-the-Middle</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Storage (iSCSI)</t>
+  </si>
+  <si>
+    <t>VCloud</t>
+  </si>
+  <si>
+    <t>VCenter</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public </t>
+  </si>
+  <si>
+    <t>Tools (Clients)</t>
+  </si>
+  <si>
+    <t>Tools (Tkt System)</t>
+  </si>
+  <si>
+    <t>Cloudspace</t>
+  </si>
+  <si>
+    <t>MyCloud</t>
+  </si>
+  <si>
+    <t>Existing Security Measures</t>
+  </si>
+  <si>
+    <t>Detection Methods Implmented</t>
+  </si>
+  <si>
+    <t>Incident Reponse Actions</t>
+  </si>
+  <si>
+    <t>Recovery Process</t>
+  </si>
+  <si>
+    <t>Email, Social Media, Site Chat</t>
+  </si>
+  <si>
+    <t>Web Application Attacks + Function Abuse</t>
+  </si>
+  <si>
+    <t>Missing Security Measures</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>IPMI</t>
+  </si>
+  <si>
+    <t>Office only</t>
+  </si>
+  <si>
+    <t>Access to office network</t>
+  </si>
+  <si>
+    <t>Depends on employee access</t>
+  </si>
+  <si>
+    <t>Password Attacks + IP Spoofing Attack</t>
+  </si>
+  <si>
+    <t>Access Limited to Office IP only</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Items required for the attacker to be able to attack</t>
+  </si>
+  <si>
+    <t>Only Internet Access</t>
+  </si>
+  <si>
+    <t>Password Attacks + Vulnerabilities in software version</t>
+  </si>
+  <si>
+    <t>Very High in case of RCE</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Network Access</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +171,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,8 +214,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,42 +532,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027DF714-7F5B-4056-875E-470AD2ADC017}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/RiskAssessment.xlsx
+++ b/work/RiskAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PowerShell\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D9BC1-DB51-42F4-9AD0-908E2C0DE3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B18E12C-31B2-491D-9525-7B012CC49259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{65CE028D-326F-40D8-97EB-50997E25F404}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
-  <si>
-    <t>Item</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Impact</t>
   </si>
@@ -157,6 +154,36 @@
   </si>
   <si>
     <t>Network Access</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Windows Machines</t>
+  </si>
+  <si>
+    <t>Office + Jump</t>
+  </si>
+  <si>
+    <t>Linux Machines</t>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+  </si>
+  <si>
+    <t>AWS S3</t>
+  </si>
+  <si>
+    <t>S3 Access Misconfigurations</t>
+  </si>
+  <si>
+    <t>Veeam</t>
+  </si>
+  <si>
+    <t>SQLi</t>
+  </si>
+  <si>
+    <t>Privilege Escalation</t>
   </si>
 </sst>
 </file>
@@ -532,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027DF714-7F5B-4056-875E-470AD2ADC017}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="1" bestFit="1" customWidth="1"/>
@@ -558,245 +585,306 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
